--- a/medicine/Autisme/L'Ange_au_sourire/L'Ange_au_sourire.xlsx
+++ b/medicine/Autisme/L'Ange_au_sourire/L'Ange_au_sourire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Ange_au_sourire</t>
+          <t>L'Ange_au_sourire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Ange au sourire est un roman écrit par Yann-Hervé Martin et paru en 2008 aux Éditions Les Nouveaux Auteurs. Il a remporté le Coup de Cœur du Jury lors du Prix Femme Actuelle du Roman de l'été 2008 décerné par un comité de lecture grand public sous la présidence de Paulo Coelho. Il s'est vendu à plus de 4 000 exemplaires[1].
+L'Ange au sourire est un roman écrit par Yann-Hervé Martin et paru en 2008 aux Éditions Les Nouveaux Auteurs. Il a remporté le Coup de Cœur du Jury lors du Prix Femme Actuelle du Roman de l'été 2008 décerné par un comité de lecture grand public sous la présidence de Paulo Coelho. Il s'est vendu à plus de 4 000 exemplaires.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Ange_au_sourire</t>
+          <t>L'Ange_au_sourire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Présentation générale
-Accroche
-Louis est déclaré autiste à 5 ans et est placé en centre. Il y croise plusieurs personnages hantés par leur traumatisant passé. Ils ont tous un point commun : Louis. Et s'il n'était pas là par hasard ?
-Résumé
-Analyse</t>
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Accroche</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis est déclaré autiste à 5 ans et est placé en centre. Il y croise plusieurs personnages hantés par leur traumatisant passé. Ils ont tous un point commun : Louis. Et s'il n'était pas là par hasard ?
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Ange_au_sourire</t>
+          <t>L'Ange_au_sourire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +567,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Récompense et histoire de la publication
-L'Ange au sourire a été envoyé par Yann-Hervé Martin dans le cadre d'un appel à manuscrit lancé par Femme Actuelle pour trouver le « roman de l'été 2008 ». Un comité de lecture grand public de 300 membres a été composé par le magazine et une maison d'édition associée, Les Nouveaux Auteurs, et celui-ci a été placé sous la présidence de Paulo Coelho pour élire le lauréat du concours[2]. C'est au Cercle du silence de David Hepburn, qu'a été décerné le Grand Prix du Roman de l'été Femme Actuelle 2008[3]. L'Ange au sourire, pour sa part, a reçu le prix du Jury. Plébiscité par le comité de lecture, il est paru le 12 juin 2008 aux Éditions Les Nouveaux Auteurs. 
-Critiques
-Ventes</t>
+          <t>Récompense et histoire de la publication</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ange au sourire a été envoyé par Yann-Hervé Martin dans le cadre d'un appel à manuscrit lancé par Femme Actuelle pour trouver le « roman de l'été 2008 ». Un comité de lecture grand public de 300 membres a été composé par le magazine et une maison d'édition associée, Les Nouveaux Auteurs, et celui-ci a été placé sous la présidence de Paulo Coelho pour élire le lauréat du concours. C'est au Cercle du silence de David Hepburn, qu'a été décerné le Grand Prix du Roman de l'été Femme Actuelle 2008. L'Ange au sourire, pour sa part, a reçu le prix du Jury. Plébiscité par le comité de lecture, il est paru le 12 juin 2008 aux Éditions Les Nouveaux Auteurs. 
+</t>
         </is>
       </c>
     </row>
